--- a/data/trans_orig/IP22D3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22D3_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BCB43A3-887E-4996-828F-25212ACDF174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B54914E6-A8A2-4525-9096-562DB2F73AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E0EE965-4B5F-46DD-96B8-DDA3C19859B6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B019DD0-51E6-4432-97DA-B50FED15C72F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="106">
   <si>
     <t>Menores que, necesitándolo, no pudo recibir algún medicamento en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>83,36%</t>
+    <t>79,44%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,7 +89,7 @@
     <t>15,07%</t>
   </si>
   <si>
-    <t>62,45%</t>
+    <t>57,05%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -98,7 +98,7 @@
     <t>71,0%</t>
   </si>
   <si>
-    <t>16,64%</t>
+    <t>20,56%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,7 +113,7 @@
     <t>84,93%</t>
   </si>
   <si>
-    <t>37,55%</t>
+    <t>42,95%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -134,61 +134,61 @@
     <t>8,09%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
   </si>
   <si>
     <t>88,01%</t>
   </si>
   <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>12,49%</t>
+    <t>12,75%</t>
   </si>
   <si>
     <t>4,25%</t>
@@ -197,136 +197,139 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>6,35%</t>
+    <t>6,66%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
     <t>13,63%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
   </si>
   <si>
     <t>10,98%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
   </si>
   <si>
     <t>83,62%</t>
   </si>
   <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
   </si>
   <si>
     <t>91,97%</t>
   </si>
   <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>9,51%</t>
+    <t>8,12%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -335,19 +338,19 @@
     <t>0,91%</t>
   </si>
   <si>
-    <t>4,78%</t>
+    <t>5,47%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,74%</t>
+    <t>5,41%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>3,02%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -762,7 +765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CD6E72-2A6E-445D-A9F8-D40F04077700}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23DBC72-0128-4809-A83D-1E7979518F57}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1538,7 +1541,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1589,7 +1592,7 @@
         <v>14</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,13 +1660,13 @@
         <v>6738</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -1672,13 +1675,13 @@
         <v>3560</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -1687,13 +1690,13 @@
         <v>10298</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,13 +1711,13 @@
         <v>41321</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>57</v>
@@ -1723,13 +1726,13 @@
         <v>40800</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>110</v>
@@ -1738,13 +1741,13 @@
         <v>82120</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1759,13 +1762,13 @@
         <v>854</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1780,7 +1783,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -1789,13 +1792,13 @@
         <v>854</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,13 +1813,13 @@
         <v>504</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1831,7 +1834,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -1840,13 +1843,13 @@
         <v>504</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,7 +1905,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP22D3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22D3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B54914E6-A8A2-4525-9096-562DB2F73AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{072EFF3B-E23F-4C73-B2BE-EE1B357C668E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B019DD0-51E6-4432-97DA-B50FED15C72F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D32E6CE8-6038-455B-A849-1F6C95B18ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores que, necesitándolo, no pudo recibir algún medicamento en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,36 +71,30 @@
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>29,0%</t>
-  </si>
-  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>79,44%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -110,10 +104,16 @@
     <t>100%</t>
   </si>
   <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -131,226 +131,226 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -765,7 +765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23DBC72-0128-4809-A83D-1E7979518F57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5252BFF-411C-479D-B5C3-AD499C084033}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -883,10 +883,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1488</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -898,16 +898,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1590</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -916,13 +916,13 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>1488</v>
+        <v>1590</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -937,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>3641</v>
+        <v>8192</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -952,22 +952,22 @@
         <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>4739</v>
+        <v>4068</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>8380</v>
+        <v>12260</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -976,7 +976,7 @@
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -991,40 +991,40 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>28</v>
@@ -1042,40 +1042,40 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>28</v>
@@ -1087,49 +1087,49 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8192</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
         <v>6</v>
       </c>
-      <c r="D8" s="7">
-        <v>5129</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
       <c r="I8" s="7">
-        <v>4739</v>
+        <v>5658</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
       </c>
       <c r="N8" s="7">
-        <v>9868</v>
+        <v>13850</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1143,7 +1143,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>2822</v>
+        <v>2748</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>31</v>
@@ -1158,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>2770</v>
+        <v>2879</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>34</v>
@@ -1173,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="N9" s="7">
-        <v>5592</v>
+        <v>5626</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>37</v>
@@ -1194,7 +1194,7 @@
         <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>30688</v>
+        <v>27463</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>40</v>
@@ -1209,7 +1209,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="7">
-        <v>26947</v>
+        <v>32537</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>43</v>
@@ -1224,7 +1224,7 @@
         <v>80</v>
       </c>
       <c r="N10" s="7">
-        <v>57635</v>
+        <v>60000</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>46</v>
@@ -1242,31 +1242,31 @@
         <v>26</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>854</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>925</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>51</v>
@@ -1275,13 +1275,13 @@
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>854</v>
+        <v>925</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>53</v>
@@ -1293,46 +1293,46 @@
         <v>29</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>519</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>56</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>57</v>
@@ -1344,49 +1344,49 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>44</v>
+      </c>
+      <c r="D13" s="7">
+        <v>30211</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="7">
         <v>46</v>
       </c>
-      <c r="D13" s="7">
-        <v>34869</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="7">
-        <v>44</v>
-      </c>
       <c r="I13" s="7">
-        <v>29717</v>
+        <v>36860</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
       </c>
       <c r="N13" s="7">
-        <v>64586</v>
+        <v>67071</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,31 +1397,31 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>2428</v>
+        <v>788</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>4</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2660</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>791</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>63</v>
@@ -1430,7 +1430,7 @@
         <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>3219</v>
+        <v>3447</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>64</v>
@@ -1448,10 +1448,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7">
-        <v>6990</v>
+        <v>8975</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>67</v>
@@ -1460,28 +1460,28 @@
         <v>68</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>8</v>
+      </c>
+      <c r="I15" s="7">
+        <v>8094</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="7">
-        <v>12</v>
-      </c>
-      <c r="I15" s="7">
-        <v>9114</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>20</v>
       </c>
       <c r="N15" s="7">
-        <v>16104</v>
+        <v>17070</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>72</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>75</v>
@@ -1520,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>76</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>77</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>75</v>
@@ -1571,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>76</v>
@@ -1586,10 +1586,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>77</v>
@@ -1601,49 +1601,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9763</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
         <v>12</v>
       </c>
-      <c r="D18" s="7">
-        <v>9418</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="7">
-        <v>14</v>
-      </c>
       <c r="I18" s="7">
-        <v>9905</v>
+        <v>10754</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
       </c>
       <c r="N18" s="7">
-        <v>19323</v>
+        <v>20517</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1654,10 +1654,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>6738</v>
+        <v>3536</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>78</v>
@@ -1669,10 +1669,10 @@
         <v>80</v>
       </c>
       <c r="H19" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>3560</v>
+        <v>7129</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>81</v>
@@ -1687,7 +1687,7 @@
         <v>15</v>
       </c>
       <c r="N19" s="7">
-        <v>10298</v>
+        <v>10664</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>84</v>
@@ -1705,10 +1705,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D20" s="7">
-        <v>41321</v>
+        <v>44630</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>87</v>
@@ -1720,10 +1720,10 @@
         <v>89</v>
       </c>
       <c r="H20" s="7">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I20" s="7">
-        <v>40800</v>
+        <v>44699</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>90</v>
@@ -1738,7 +1738,7 @@
         <v>110</v>
       </c>
       <c r="N20" s="7">
-        <v>82120</v>
+        <v>89329</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>93</v>
@@ -1756,31 +1756,31 @@
         <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>854</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
+        <v>925</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="K21" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>98</v>
@@ -1789,13 +1789,13 @@
         <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>854</v>
+        <v>925</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>99</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>100</v>
@@ -1807,46 +1807,46 @@
         <v>29</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>519</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>104</v>
@@ -1858,49 +1858,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>63</v>
+      </c>
+      <c r="D23" s="7">
+        <v>48166</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="7">
         <v>64</v>
       </c>
-      <c r="D23" s="7">
-        <v>49417</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="7">
-        <v>63</v>
-      </c>
       <c r="I23" s="7">
-        <v>44360</v>
+        <v>53272</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M23" s="7">
         <v>127</v>
       </c>
       <c r="N23" s="7">
-        <v>93777</v>
+        <v>101438</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
